--- a/src/main/resources/latinNames.xlsx
+++ b/src/main/resources/latinNames.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="latinMaleNames" sheetId="1" state="visible" r:id="rId2"/>
@@ -218,11 +218,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
@@ -510,11 +510,11 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
